--- a/Definition/Requirments/LHWA_SIQ.xlsx
+++ b/Definition/Requirments/LHWA_SIQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mai Ashraf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\Encyclopedia\Definition\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50777F-153F-4D33-AFEA-9AAA1C20B56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A807E-5203-42D0-B99C-1CD682BFDBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -279,6 +279,72 @@
   <si>
     <t>Website</t>
   </si>
+  <si>
+    <t>SIQ ID</t>
+  </si>
+  <si>
+    <t>SIQ_Q01</t>
+  </si>
+  <si>
+    <t>SIQ_Q02</t>
+  </si>
+  <si>
+    <t>SIQ_Q03</t>
+  </si>
+  <si>
+    <t>SIQ_Q04</t>
+  </si>
+  <si>
+    <t>SIQ_Q05</t>
+  </si>
+  <si>
+    <t>SIQ_Q06</t>
+  </si>
+  <si>
+    <t>SIQ_Q07</t>
+  </si>
+  <si>
+    <t>SIQ_Q08</t>
+  </si>
+  <si>
+    <t>SIQ_Q09</t>
+  </si>
+  <si>
+    <t>SIQ_Q10</t>
+  </si>
+  <si>
+    <t>SIQ_Q11</t>
+  </si>
+  <si>
+    <t>SIQ_Q12</t>
+  </si>
+  <si>
+    <t>SIQ_Q13</t>
+  </si>
+  <si>
+    <t>SIQ_Q14</t>
+  </si>
+  <si>
+    <t>SIQ_Q15</t>
+  </si>
+  <si>
+    <t>SIQ_Q16</t>
+  </si>
+  <si>
+    <t>SIQ_Q17</t>
+  </si>
+  <si>
+    <t>SIQ_Q18</t>
+  </si>
+  <si>
+    <t>SIQ_Q19</t>
+  </si>
+  <si>
+    <t>SIQ_Q20</t>
+  </si>
+  <si>
+    <t>SIQ_Q21</t>
+  </si>
 </sst>
 </file>
 
@@ -508,14 +574,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +598,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,568 +824,634 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="21"/>
-    <col min="2" max="2" width="20.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="44" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="12.6640625" style="21"/>
+    <col min="1" max="2" width="12.6640625" style="17"/>
+    <col min="3" max="3" width="20.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="44" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="18">
         <v>44660</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24">
+      <c r="F2" s="20">
         <v>44808</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="18">
         <v>44660</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26">
+      <c r="F3" s="22">
         <v>44808</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="18">
         <v>44660</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24">
+      <c r="F4" s="20">
         <v>44808</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="18">
         <v>44660</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24">
+      <c r="F5" s="20">
         <v>44808</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="J5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="L5" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="18">
         <v>44660</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="24">
+      <c r="F6" s="20">
         <v>44808</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="18">
         <v>44660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="26">
+      <c r="F7" s="22">
         <v>44808</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="18">
         <v>44660</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="20">
         <v>44808</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="18">
         <v>44660</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="24">
+      <c r="F9" s="20">
         <v>44808</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="18">
         <v>44660</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24">
+      <c r="F10" s="20">
         <v>44808</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="18">
         <v>44660</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F11" s="20">
         <v>44808</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="18">
         <v>44660</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24">
+      <c r="F12" s="20">
         <v>44808</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="H12" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="18">
         <v>44660</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="24">
+      <c r="F13" s="20">
         <v>44808</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="18">
         <v>44660</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="24">
+      <c r="F14" s="20">
         <v>44808</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="18">
         <v>44660</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="24">
+      <c r="F15" s="20">
         <v>44808</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="18">
         <v>44660</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="24">
+      <c r="F16" s="20">
         <v>44808</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="18">
         <v>44660</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="24">
+      <c r="F17" s="20">
         <v>44808</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="G17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="I17" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="18">
         <v>44660</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="24">
+      <c r="F18" s="20">
         <v>44808</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="18">
         <v>44899</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="18">
         <v>44899</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="E20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="F20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="G20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="18">
         <v>44899</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="F21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="F22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="G22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1383,7 +1515,7 @@
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1416,7 +1548,7 @@
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
@@ -1447,7 +1579,7 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
@@ -1478,7 +1610,7 @@
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1511,7 +1643,7 @@
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
@@ -1542,7 +1674,7 @@
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="9" t="s">
         <v>69</v>
       </c>
@@ -1573,7 +1705,7 @@
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
